--- a/grafana/home/centos/stats.xlsx
+++ b/grafana/home/centos/stats.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regi/_github/influxdata/grafana/home/centos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8533F4-86D1-974B-9A31-0E1D5109D5EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{2F8533F4-86D1-974B-9A31-0E1D5109D5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE8AD761-18C0-024B-9E07-5A981088A101}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{E23B841C-071B-6147-AFF4-2604B2DB7C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -175,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,13 +191,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,9 +250,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +274,1374 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Query duration per time interval requested</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>      sreal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1940000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.194000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E79A-A642-B360-E777D39C3A72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>      suser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E79A-A642-B360-E777D39C3A72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>       ssys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E79A-A642-B360-E777D39C3A72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714304560"/>
+        <c:axId val="714274384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714304560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Minutes (data points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714274384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714274384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714304560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>446617</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474134</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D7DFE7-557A-3048-8E8C-607B8E02BB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,301 +1944,303 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.187</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.187</v>
-      </c>
-      <c r="H2">
-        <v>2.5000000000000001E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>0.34</v>
-      </c>
-      <c r="G3">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H3">
-        <v>2.1000000000000001E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>120</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="G4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="H4">
-        <v>1.7999999999999999E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>240</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G5">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.02</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>360</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="H6">
-        <v>4.3999999999999997E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>480</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="G7">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="H7">
-        <v>5.8999999999999997E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>720</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>2.452</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8">
-        <v>2.452</v>
-      </c>
-      <c r="G8">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="H8">
-        <v>4.8000000000000001E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1440</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
-        <v>4.7220000000000004</v>
-      </c>
-      <c r="G9">
-        <v>2.95</v>
-      </c>
-      <c r="H9">
-        <v>3.5000000000000003E-2</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2880</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2">
+        <v>9.1940000000000008</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.1769999999999996</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.124</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10">
-        <v>9.1940000000000008</v>
-      </c>
-      <c r="G10">
-        <v>5.1769999999999996</v>
-      </c>
-      <c r="H10">
-        <v>0.124</v>
-      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10080</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>32.194000000000003</v>
+      </c>
+      <c r="C11" s="3">
+        <v>31.177</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.018</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F11">
-        <v>32.194000000000003</v>
-      </c>
-      <c r="G11">
-        <v>31.177</v>
-      </c>
-      <c r="H11">
-        <v>1.018</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>